--- a/questionnaires_ru.xlsx
+++ b/questionnaires_ru.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maria\Desktop\kursach\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32DC9196-A376-405E-B58C-028EFF265EA5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470475D5-A0A7-4439-B8FE-57578FA7AC17}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{0B2ED91D-B645-4524-B524-2120532B1410}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0B2ED91D-B645-4524-B524-2120532B1410}"/>
   </bookViews>
   <sheets>
-    <sheet name="thick_thin" sheetId="1" r:id="rId1"/>
+    <sheet name="thickthin" sheetId="1" r:id="rId1"/>
     <sheet name="smooth" sheetId="2" r:id="rId2"/>
-    <sheet name="_x0009_острый" sheetId="3" r:id="rId3"/>
+    <sheet name="sharp" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -1334,8 +1334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51002010-2035-45CF-9037-6729BE999FDD}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2314,7 +2314,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37973252-F1F5-4FCA-870E-FB7BB3AD82B7}">
   <dimension ref="A1:B141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+    <sheetView topLeftCell="A141" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
